--- a/TestData/dining_places.xlsx
+++ b/TestData/dining_places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmcgauley/Documents/Villanova/ClassWork/SecondYear/CSC8490/DormDash/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmcgauley/Documents/Villanova/ClassWork/SecondYear/CSC8490/DormDash/lit_project/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F80586-81A4-B342-8F8C-B21A37FB4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D5278E-1FDC-9B45-92E4-6CAC722A5AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="500" windowWidth="15460" windowHeight="16600" xr2:uid="{2CD6CD7C-FD4E-7C4D-8236-B63499FB4E79}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16600" xr2:uid="{2CD6CD7C-FD4E-7C4D-8236-B63499FB4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
